--- a/Assignment 2/Data/Data Record.xlsx
+++ b/Assignment 2/Data/Data Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuhao Zhou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuhao Zhou\Desktop\NTU 21Spring\EE6227\Assignment 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E002DA18-CE77-427E-A0FC-78C17FED36B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748A1A62-88BD-4E73-BD07-ECE96B9E74D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6684" yWindow="1164" windowWidth="15828" windowHeight="13680" xr2:uid="{17E44FB8-2F9C-47BA-9916-223A6EA9215B}"/>
+    <workbookView xWindow="7560" yWindow="1440" windowWidth="15768" windowHeight="15084" xr2:uid="{17E44FB8-2F9C-47BA-9916-223A6EA9215B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="41">
   <si>
     <t>car</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,9 +58,6 @@
     <t>val_acc</t>
   </si>
   <si>
-    <t>high-valley</t>
-  </si>
-  <si>
     <t>plant-margin</t>
   </si>
   <si>
@@ -167,6 +164,18 @@
   </si>
   <si>
     <t>molec-biol-splice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant-margin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hill-valley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeast</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -284,6 +293,12 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,12 +319,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6923001-D4A4-4DA3-B39A-11D7551A8F37}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37:R48"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -642,30 +651,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="K1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -692,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -720,8 +729,8 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
+      <c r="A3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -747,8 +756,8 @@
       <c r="I3">
         <v>0.79754744720662896</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>29</v>
+      <c r="J3" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -776,12 +785,12 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>0.66263661202185797</v>
@@ -801,12 +810,12 @@
       <c r="I4">
         <v>0.53913934426229504</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="6"/>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4">
         <v>0.67916666666666703</v>
@@ -828,12 +837,12 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>0.61250000000000004</v>
@@ -853,12 +862,12 @@
       <c r="I5">
         <v>0.41875000000000001</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="6"/>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5">
         <v>0.58750000000000002</v>
@@ -880,12 +889,12 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>0.45624999999999999</v>
@@ -905,12 +914,12 @@
       <c r="I6">
         <v>0.265625</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="6"/>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6">
         <v>0.38750000000000001</v>
@@ -932,12 +941,12 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>0.640625</v>
@@ -957,12 +966,12 @@
       <c r="I7">
         <v>0.53749999999999998</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="6"/>
       <c r="K7">
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7">
         <v>0.64687499999999998</v>
@@ -984,12 +993,12 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>0.98228346456692905</v>
@@ -1009,12 +1018,12 @@
       <c r="I8">
         <v>0.64173228346456701</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="6"/>
       <c r="K8">
         <v>6</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8">
         <v>0.98228346456692905</v>
@@ -1036,12 +1045,12 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>0.62256756756756804</v>
@@ -1061,12 +1070,12 @@
       <c r="I9">
         <v>0.44468468468468503</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="6"/>
       <c r="K9">
         <v>7</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M9">
         <v>0.60927927927927905</v>
@@ -1088,12 +1097,12 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>0.52563865235098095</v>
@@ -1113,12 +1122,12 @@
       <c r="I10">
         <v>0.35260088855979299</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="6"/>
       <c r="K10">
         <v>8</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10">
         <v>0.53924472417623104</v>
@@ -1140,12 +1149,12 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>0.76637185534591201</v>
@@ -1165,12 +1174,12 @@
       <c r="I11">
         <v>0.56570361635220101</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="6"/>
       <c r="K11">
         <v>9</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11">
         <v>0.76642099056603796</v>
@@ -1192,12 +1201,12 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>0.76500000000000001</v>
@@ -1217,12 +1226,12 @@
       <c r="I12">
         <v>0.67500000000000004</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="6"/>
       <c r="K12">
         <v>10</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12">
         <v>0.79</v>
@@ -1244,31 +1253,31 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -1293,7 +1302,7 @@
       <c r="I14" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="6"/>
       <c r="K14" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +1329,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
       <c r="B15">
         <v>1</v>
       </c>
@@ -1345,7 +1354,7 @@
       <c r="I15">
         <v>0.91329190056134701</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="6"/>
       <c r="K15">
         <v>1</v>
       </c>
@@ -1372,12 +1381,12 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>0.66277322404371597</v>
@@ -1397,12 +1406,12 @@
       <c r="I16">
         <v>0.53907103825136604</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="6"/>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M16">
         <v>0.691325136612022</v>
@@ -1424,12 +1433,12 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="7"/>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>0.58750000000000002</v>
@@ -1449,12 +1458,12 @@
       <c r="I17">
         <v>0.58125000000000004</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="6"/>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17">
         <v>0.609375</v>
@@ -1476,12 +1485,12 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>0.5</v>
@@ -1501,12 +1510,12 @@
       <c r="I18">
         <v>0.45937499999999998</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="6"/>
       <c r="K18">
         <v>4</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18">
         <v>0.49687500000000001</v>
@@ -1528,12 +1537,12 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="7"/>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>0.62812500000000004</v>
@@ -1553,12 +1562,12 @@
       <c r="I19">
         <v>0.61875000000000002</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="6"/>
       <c r="K19">
         <v>5</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19">
         <v>0.65</v>
@@ -1580,12 +1589,12 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>0.98425196850393704</v>
@@ -1605,12 +1614,12 @@
       <c r="I20">
         <v>0.97834645669291298</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="6"/>
       <c r="K20">
         <v>6</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M20">
         <v>0.98228346456692905</v>
@@ -1632,12 +1641,12 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>0.58918918918918906</v>
@@ -1657,12 +1666,12 @@
       <c r="I21">
         <v>0.54189189189189202</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="6"/>
       <c r="K21">
         <v>7</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M21">
         <v>0.64288288288288298</v>
@@ -1684,12 +1693,12 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
       <c r="B22">
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>0.525731210662718</v>
@@ -1709,12 +1718,12 @@
       <c r="I22">
         <v>0.44756571640133302</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="6"/>
       <c r="K22">
         <v>8</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M22">
         <v>0.51892817475009301</v>
@@ -1736,12 +1745,12 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="B23">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>0.75227004716981105</v>
@@ -1761,12 +1770,12 @@
       <c r="I23">
         <v>0.66298152515723296</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="6"/>
       <c r="K23">
         <v>9</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M23">
         <v>0.77113797169811304</v>
@@ -1788,12 +1797,12 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>0.77</v>
@@ -1813,12 +1822,12 @@
       <c r="I24">
         <v>0.72</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="6"/>
       <c r="K24">
         <v>10</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M24">
         <v>0.78</v>
@@ -1840,31 +1849,31 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>1</v>
       </c>
@@ -1889,7 +1898,7 @@
       <c r="I26" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="6"/>
       <c r="K26" t="s">
         <v>1</v>
       </c>
@@ -1916,7 +1925,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="7"/>
       <c r="B27">
         <v>1</v>
       </c>
@@ -1941,7 +1950,7 @@
       <c r="I27">
         <v>0.90751136059877002</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="6"/>
       <c r="K27">
         <v>1</v>
       </c>
@@ -1968,12 +1977,12 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="7"/>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>0.70785519125683105</v>
@@ -1993,12 +2002,12 @@
       <c r="I28">
         <v>0.62964480874316897</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="6"/>
       <c r="K28">
         <v>2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M28">
         <v>0.70389344262295095</v>
@@ -2020,12 +2029,12 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="7"/>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>0.65</v>
@@ -2045,12 +2054,12 @@
       <c r="I29">
         <v>0.609375</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="6"/>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M29">
         <v>0.625</v>
@@ -2072,12 +2081,12 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="7"/>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>0.50937500000000002</v>
@@ -2097,12 +2106,12 @@
       <c r="I30">
         <v>0.44374999999999998</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="6"/>
       <c r="K30">
         <v>4</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M30">
         <v>0.44374999999999998</v>
@@ -2124,12 +2133,12 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="7"/>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>0.66562500000000002</v>
@@ -2149,12 +2158,12 @@
       <c r="I31">
         <v>0.640625</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="6"/>
       <c r="K31">
         <v>5</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M31">
         <v>0.65625</v>
@@ -2176,12 +2185,12 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="7"/>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>0.98228346456692905</v>
@@ -2201,12 +2210,12 @@
       <c r="I32">
         <v>0.97047244094488205</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="6"/>
       <c r="K32">
         <v>6</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M32">
         <v>0.98228346456692905</v>
@@ -2228,12 +2237,12 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="7"/>
       <c r="B33">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>0.62621621621621604</v>
@@ -2253,12 +2262,12 @@
       <c r="I33">
         <v>0.52864864864864902</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="6"/>
       <c r="K33">
         <v>7</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M33">
         <v>0.62274774774774799</v>
@@ -2280,12 +2289,12 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
       <c r="B34">
         <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34">
         <v>0.51892817475009301</v>
@@ -2305,12 +2314,12 @@
       <c r="I34">
         <v>0.43710662717512</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="J34" s="6"/>
       <c r="K34">
         <v>8</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M34">
         <v>0.53591262495372105</v>
@@ -2332,12 +2341,12 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="7"/>
       <c r="B35">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>0.76482900943396204</v>
@@ -2357,12 +2366,12 @@
       <c r="I35">
         <v>0.66761988993710697</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="6"/>
       <c r="K35">
         <v>9</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M35">
         <v>0.77739779874213799</v>
@@ -2384,12 +2393,12 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="7"/>
       <c r="B36">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>0.78</v>
@@ -2409,12 +2418,12 @@
       <c r="I36">
         <v>0.68</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="J36" s="6"/>
       <c r="K36">
         <v>10</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M36">
         <v>0.77500000000000002</v>
@@ -2436,29 +2445,29 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="9"/>
       <c r="B38" t="s">
         <v>1</v>
       </c>
@@ -2483,18 +2492,18 @@
       <c r="I38" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
     </row>
     <row r="39" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
+      <c r="A39" s="9"/>
       <c r="B39">
         <v>1</v>
       </c>
@@ -2502,336 +2511,336 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.96382047415598604</v>
-      </c>
-      <c r="E39" s="10"/>
+        <v>0.979737371198794</v>
+      </c>
+      <c r="E39" s="12"/>
       <c r="F39">
-        <v>0.145506</v>
+        <v>2.1157922</v>
       </c>
       <c r="G39">
-        <v>0.959537572254335</v>
+        <v>0.96531791907514497</v>
       </c>
       <c r="H39">
-        <v>1.1087400000000001E-2</v>
+        <v>0.1240352</v>
       </c>
       <c r="I39">
-        <v>0.96236282147943397</v>
-      </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
+        <v>0.979737371198794</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
     </row>
     <row r="40" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
+      <c r="A40" s="9"/>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D40">
-        <v>0.57380199299391199</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11">
-        <v>346.59482420000001</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0.51440329218106995</v>
-      </c>
-      <c r="H40" s="12">
-        <v>0.26935389999999998</v>
-      </c>
-      <c r="I40" s="12">
-        <v>0.55831462775907204</v>
-      </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
+        <v>0.57586810869639204</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="4">
+        <v>412.60012039999998</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.51851851851851904</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.36264730000000001</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.555198449137843</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
     </row>
     <row r="41" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="A41" s="9"/>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D41">
-        <v>0.76718750000000002</v>
-      </c>
-      <c r="E41" s="10"/>
+        <v>0.81093749999999998</v>
+      </c>
+      <c r="E41" s="12"/>
       <c r="F41" s="3">
-        <v>119.3544879</v>
+        <v>28.3154199999999</v>
       </c>
       <c r="G41">
-        <v>0.82499999999999996</v>
+        <v>0.85624999999999996</v>
       </c>
       <c r="H41">
-        <v>0.404478</v>
+        <v>0.37899509999999997</v>
       </c>
       <c r="I41">
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
+        <v>0.76953125</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
     </row>
     <row r="42" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
+      <c r="A42" s="9"/>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>0.59062499999999996</v>
-      </c>
-      <c r="E42" s="10"/>
+        <v>0.60390624999999998</v>
+      </c>
+      <c r="E42" s="12"/>
       <c r="F42" s="3">
-        <v>301.3464841</v>
+        <v>31.281515899999899</v>
       </c>
       <c r="G42">
-        <v>0.546875</v>
+        <v>0.57187500000000002</v>
       </c>
       <c r="H42">
-        <v>0.25772489999999998</v>
+        <v>0.32275110000000001</v>
       </c>
       <c r="I42">
-        <v>0.59062499999999996</v>
-      </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
+        <v>0.5859375</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
     </row>
     <row r="43" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
+      <c r="A43" s="9"/>
       <c r="B43">
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>0.74665213557993704</v>
-      </c>
-      <c r="E43" s="10"/>
+        <v>0.79749706112852703</v>
+      </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="3">
-        <v>173.9828014</v>
+        <v>24.027189400000001</v>
       </c>
       <c r="G43">
-        <v>0.80937499999999996</v>
+        <v>0.84687500000000004</v>
       </c>
       <c r="H43">
-        <v>0.42185010000000001</v>
+        <v>0.40778239999999999</v>
       </c>
       <c r="I43">
-        <v>0.73650323275862095</v>
-      </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
+        <v>0.76229672805642601</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="9"/>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>0.97041420118343202</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44">
-        <v>53.935389899999898</v>
+        <v>0.968934911242603</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="3">
+        <v>109.58592109999999</v>
       </c>
       <c r="G44">
-        <v>0.97834645669291298</v>
+        <v>0.98031496062992096</v>
       </c>
       <c r="H44">
-        <v>0.14699980000000001</v>
+        <v>0.2945585</v>
       </c>
       <c r="I44">
-        <v>0.96696252465483201</v>
-      </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
+        <v>0.96745562130177498</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="9"/>
       <c r="B45">
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>0.56530678405678403</v>
-      </c>
-      <c r="E45" s="10"/>
+        <v>0.62343593593593605</v>
+      </c>
+      <c r="E45" s="12"/>
       <c r="F45">
-        <v>1.8424875000000001</v>
+        <v>5.3818272</v>
       </c>
       <c r="G45">
-        <v>0.53198653198653201</v>
+        <v>0.60942760942760899</v>
       </c>
       <c r="H45">
-        <v>4.1190499999999998E-2</v>
+        <v>0.2692058</v>
       </c>
       <c r="I45">
-        <v>0.56530678405678403</v>
-      </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+        <v>0.60573926198926198</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
     </row>
     <row r="46" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
+      <c r="A46" s="9"/>
       <c r="B46">
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="10"/>
+        <v>0.52374899112187301</v>
+      </c>
+      <c r="E46" s="12"/>
       <c r="F46">
-        <v>0.82215110000000002</v>
+        <v>0.92478669999999996</v>
       </c>
       <c r="G46">
-        <v>0.54237288135593198</v>
+        <v>0.56610169491525397</v>
       </c>
       <c r="H46">
-        <v>2.14243E-2</v>
+        <v>3.7466699999999999E-2</v>
       </c>
       <c r="I46">
-        <v>0.48558169030324</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-    </row>
-    <row r="47" spans="1:18" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
+        <v>0.49915542488181702</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
       <c r="B47">
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>0.943965517241379</v>
-      </c>
-      <c r="E47" s="10"/>
+        <v>0.94984326018808796</v>
+      </c>
+      <c r="E47" s="12"/>
       <c r="F47">
-        <v>10.5558339</v>
+        <v>18.7085904999999</v>
       </c>
       <c r="G47">
-        <v>0.94827586206896597</v>
+        <v>0.96238244514106597</v>
       </c>
       <c r="H47">
-        <v>0.16120689999999999</v>
+        <v>0.46617769999999997</v>
       </c>
       <c r="I47">
-        <v>0.92789968652037602</v>
-      </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
+        <v>0.92946708463949901</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
     </row>
     <row r="48" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
+      <c r="A48" s="9"/>
       <c r="B48">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>0.76749999999999996</v>
-      </c>
-      <c r="E48" s="10"/>
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="E48" s="12"/>
       <c r="F48">
-        <v>2.2874387</v>
+        <v>12.246198199999901</v>
       </c>
       <c r="G48">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="H48">
-        <v>2.8687399999999998E-2</v>
+        <v>0.1515841</v>
       </c>
       <c r="I48">
-        <v>0.75624999999999998</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
+        <v>0.74124999999999996</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
